--- a/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Customer</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -467,7 +470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -475,16 +478,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1123174</v>
       </c>
@@ -492,10 +498,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
         <v>114449</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
@@ -465,7 +465,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,13 +492,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1123174</v>
+        <v>1105024</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="3">
         <v>114449</v>

--- a/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDepositsRegularCustomer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Customer</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.TYPE:1</t>
   </si>
 </sst>
 </file>
@@ -462,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -481,16 +493,28 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1105024</v>
       </c>
@@ -500,11 +524,15 @@
       <c r="C2" s="3">
         <v>100000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>114449</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
